--- a/data/spss_files_nl.xlsx
+++ b/data/spss_files_nl.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jarvisc1\Documents\projects\comix_data_clean\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FF07307-3B98-45CF-9620-4AEF0606DEDF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54A1F479-643E-411D-8103-E8A45A1A56CE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18120" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -544,7 +544,7 @@
   <dimension ref="A1:O14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="I3" sqref="I3:I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.84375" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -627,8 +627,8 @@
         <v>13</v>
       </c>
       <c r="I2" t="str">
-        <f t="shared" ref="I2:I11" si="0">C2&amp;"_"&amp;"wk"&amp;TEXT(D2,"00")&amp;"_"&amp;YEAR(G2)&amp;TEXT(G2,"MM")&amp;TEXT(G2,"DD")&amp;"_p"&amp;E2&amp;"_wv"&amp;TEXT(F2,"00")&amp;""</f>
-        <v>nl_wk01_20200429_pA_wv01</v>
+        <f>C2&amp;"_"&amp;"sr"&amp;TEXT(D2,"00")&amp;"_"&amp;YEAR(G2)&amp;TEXT(G2,"MM")&amp;TEXT(G2,"DD")&amp;"_p"&amp;E2&amp;"_wv"&amp;TEXT(F2,"00")&amp;""</f>
+        <v>nl_sr01_20200429_pA_wv01</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -659,9 +659,9 @@
       <c r="H3" t="s">
         <v>14</v>
       </c>
-      <c r="I3" t="str">
-        <f t="shared" si="0"/>
-        <v>nl_wk02_20200518_pA_wv02</v>
+      <c r="I3" s="2" t="str">
+        <f t="shared" ref="I3:I14" si="0">C3&amp;"_"&amp;"sr"&amp;TEXT(D3,"00")&amp;"_"&amp;YEAR(G3)&amp;TEXT(G3,"MM")&amp;TEXT(G3,"DD")&amp;"_p"&amp;E3&amp;"_wv"&amp;TEXT(F3,"00")&amp;""</f>
+        <v>nl_sr02_20200518_pA_wv02</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -692,9 +692,9 @@
       <c r="H4" t="s">
         <v>15</v>
       </c>
-      <c r="I4" t="str">
+      <c r="I4" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>nl_wk03_20200601_pA_wv03</v>
+        <v>nl_sr03_20200601_pA_wv03</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -725,9 +725,9 @@
       <c r="H5" t="s">
         <v>16</v>
       </c>
-      <c r="I5" t="str">
+      <c r="I5" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>nl_wk04_20200612_pA_wv04</v>
+        <v>nl_sr04_20200612_pA_wv04</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -758,9 +758,9 @@
       <c r="H6" t="s">
         <v>17</v>
       </c>
-      <c r="I6" t="str">
+      <c r="I6" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>nl_wk05_20200626_pA_wv05</v>
+        <v>nl_sr05_20200626_pA_wv05</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -791,9 +791,9 @@
       <c r="H7" t="s">
         <v>18</v>
       </c>
-      <c r="I7" t="str">
+      <c r="I7" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>nl_wk06_20200710_pA_wv06</v>
+        <v>nl_sr06_20200710_pA_wv06</v>
       </c>
       <c r="K7">
         <v>1</v>
@@ -824,9 +824,9 @@
       <c r="H8" t="s">
         <v>19</v>
       </c>
-      <c r="I8" t="str">
+      <c r="I8" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>nl_wk07_20200724_pA_wv07</v>
+        <v>nl_sr07_20200724_pA_wv07</v>
       </c>
       <c r="K8">
         <v>1</v>
@@ -857,9 +857,9 @@
       <c r="H9" t="s">
         <v>20</v>
       </c>
-      <c r="I9" t="str">
+      <c r="I9" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>nl_wk08_20200806_pA_wv08</v>
+        <v>nl_sr08_20200806_pA_wv08</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -890,9 +890,9 @@
       <c r="H10" t="s">
         <v>31</v>
       </c>
-      <c r="I10" t="str">
+      <c r="I10" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>nl_wk09_20210107_pB_wv01</v>
+        <v>nl_sr09_20210107_pB_wv01</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.4">
@@ -920,9 +920,9 @@
       <c r="H11" t="s">
         <v>30</v>
       </c>
-      <c r="I11" t="str">
+      <c r="I11" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>nl_wk10_20210118_pB_wv02</v>
+        <v>nl_sr10_20210118_pB_wv02</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.4">
@@ -951,8 +951,8 @@
         <v>32</v>
       </c>
       <c r="I12" s="2" t="str">
-        <f t="shared" ref="I12:I14" si="1">C12&amp;"_"&amp;"wk"&amp;TEXT(D12,"00")&amp;"_"&amp;YEAR(G12)&amp;TEXT(G12,"MM")&amp;TEXT(G12,"DD")&amp;"_p"&amp;E12&amp;"_wv"&amp;TEXT(F12,"00")&amp;""</f>
-        <v>nl_wk11_20210202_pB_wv03</v>
+        <f t="shared" si="0"/>
+        <v>nl_sr11_20210202_pB_wv03</v>
       </c>
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
@@ -982,9 +982,9 @@
       <c r="H13" t="s">
         <v>33</v>
       </c>
-      <c r="I13" t="str">
-        <f t="shared" si="1"/>
-        <v>nl_wk12_20210212_pB_wv04</v>
+      <c r="I13" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>nl_sr12_20210212_pB_wv04</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.4">
@@ -1012,9 +1012,9 @@
       <c r="H14" t="s">
         <v>37</v>
       </c>
-      <c r="I14" t="str">
-        <f t="shared" si="1"/>
-        <v>nl_wk13_20210301_pB_wv05</v>
+      <c r="I14" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>nl_sr13_20210301_pB_wv05</v>
       </c>
     </row>
   </sheetData>

--- a/data/spss_files_nl.xlsx
+++ b/data/spss_files_nl.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jarvisc1\Documents\projects\comix_data_clean\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54A1F479-643E-411D-8103-E8A45A1A56CE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33CD6843-8E8F-45EE-92D7-7CBA8333630F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18120" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -544,13 +544,14 @@
   <dimension ref="A1:O14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3:I14"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.84375" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="4" max="4" width="12.23046875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.4609375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="33.765625" customWidth="1"/>
     <col min="14" max="14" width="9.4609375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>

--- a/data/spss_files_nl.xlsx
+++ b/data/spss_files_nl.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10111"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jarvisc1\Documents\projects\comix_data_clean\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/amygimma/lshtm/comix_data_clean/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33CD6843-8E8F-45EE-92D7-7CBA8333630F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEAD7A36-203E-904B-90A3-2740E1AC8933}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18120" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="5" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="40">
   <si>
     <t>country</t>
   </si>
@@ -153,6 +153,9 @@
   </si>
   <si>
     <t>survey_round</t>
+  </si>
+  <si>
+    <t>20-090916_NL_Wave6_Final_v1_210316_IntClientUse</t>
   </si>
 </sst>
 </file>
@@ -479,14 +482,14 @@
       <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.84375" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>1</v>
       </c>
@@ -494,7 +497,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>2</v>
       </c>
@@ -502,7 +505,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>3</v>
       </c>
@@ -510,7 +513,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>4</v>
       </c>
@@ -518,7 +521,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>5</v>
       </c>
@@ -526,7 +529,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>6</v>
       </c>
@@ -541,21 +544,21 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7709FE3-57B1-4766-A5D4-6B378E0A5BA3}">
-  <dimension ref="A1:O14"/>
+  <dimension ref="A1:O15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.84375" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="4" max="4" width="12.23046875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.4609375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="33.765625" customWidth="1"/>
-    <col min="14" max="14" width="9.4609375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="33.83203125" customWidth="1"/>
+    <col min="14" max="14" width="9.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>23</v>
       </c>
@@ -602,7 +605,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -635,7 +638,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
@@ -661,14 +664,14 @@
         <v>14</v>
       </c>
       <c r="I3" s="2" t="str">
-        <f t="shared" ref="I3:I14" si="0">C3&amp;"_"&amp;"sr"&amp;TEXT(D3,"00")&amp;"_"&amp;YEAR(G3)&amp;TEXT(G3,"MM")&amp;TEXT(G3,"DD")&amp;"_p"&amp;E3&amp;"_wv"&amp;TEXT(F3,"00")&amp;""</f>
+        <f t="shared" ref="I3:I15" si="0">C3&amp;"_"&amp;"sr"&amp;TEXT(D3,"00")&amp;"_"&amp;YEAR(G3)&amp;TEXT(G3,"MM")&amp;TEXT(G3,"DD")&amp;"_p"&amp;E3&amp;"_wv"&amp;TEXT(F3,"00")&amp;""</f>
         <v>nl_sr02_20200518_pA_wv02</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1</v>
       </c>
@@ -701,7 +704,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>1</v>
       </c>
@@ -734,7 +737,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>1</v>
       </c>
@@ -767,7 +770,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>1</v>
       </c>
@@ -800,7 +803,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>1</v>
       </c>
@@ -833,7 +836,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>1</v>
       </c>
@@ -866,7 +869,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>6</v>
       </c>
@@ -896,7 +899,7 @@
         <v>nl_sr09_20210107_pB_wv01</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>6</v>
       </c>
@@ -926,7 +929,7 @@
         <v>nl_sr10_20210118_pB_wv02</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>6</v>
       </c>
@@ -958,7 +961,7 @@
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>6</v>
       </c>
@@ -988,7 +991,7 @@
         <v>nl_sr12_20210212_pB_wv04</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>6</v>
       </c>
@@ -1016,6 +1019,36 @@
       <c r="I14" s="2" t="str">
         <f t="shared" si="0"/>
         <v>nl_sr13_20210301_pB_wv05</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>6</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15" t="s">
+        <v>21</v>
+      </c>
+      <c r="D15">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>12</v>
+      </c>
+      <c r="F15">
+        <v>6</v>
+      </c>
+      <c r="G15" s="3">
+        <v>44271</v>
+      </c>
+      <c r="H15" t="s">
+        <v>39</v>
+      </c>
+      <c r="I15" t="str">
+        <f t="shared" si="0"/>
+        <v>nl_sr14_20210316_pB_wv06</v>
       </c>
     </row>
   </sheetData>
@@ -1031,9 +1064,9 @@
       <selection activeCell="O21" sqref="O21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.84375" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>29</v>
       </c>

--- a/data/spss_files_nl.xlsx
+++ b/data/spss_files_nl.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/amygimma/lshtm/comix_data_clean/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kw\Documents\comix_data_clean\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEAD7A36-203E-904B-90A3-2740E1AC8933}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86936BC1-BF78-4B57-8607-764C352E9C23}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="5" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="41">
   <si>
     <t>country</t>
   </si>
@@ -156,6 +156,9 @@
   </si>
   <si>
     <t>20-090916_NL_Wave6_Final_v1_210316_IntClientUse</t>
+  </si>
+  <si>
+    <t>20-090916_NL_Wave7_Final_v1_260321_IntClientUse</t>
   </si>
 </sst>
 </file>
@@ -482,14 +485,14 @@
       <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1</v>
       </c>
@@ -497,7 +500,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2</v>
       </c>
@@ -505,7 +508,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>3</v>
       </c>
@@ -513,7 +516,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>4</v>
       </c>
@@ -521,7 +524,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>5</v>
       </c>
@@ -529,7 +532,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>6</v>
       </c>
@@ -544,21 +547,21 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7709FE3-57B1-4766-A5D4-6B378E0A5BA3}">
-  <dimension ref="A1:O15"/>
+  <dimension ref="A1:O16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="33.83203125" customWidth="1"/>
-    <col min="14" max="14" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="59" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>23</v>
       </c>
@@ -605,7 +608,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -638,7 +641,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -664,14 +667,14 @@
         <v>14</v>
       </c>
       <c r="I3" s="2" t="str">
-        <f t="shared" ref="I3:I15" si="0">C3&amp;"_"&amp;"sr"&amp;TEXT(D3,"00")&amp;"_"&amp;YEAR(G3)&amp;TEXT(G3,"MM")&amp;TEXT(G3,"DD")&amp;"_p"&amp;E3&amp;"_wv"&amp;TEXT(F3,"00")&amp;""</f>
+        <f t="shared" ref="I3:I16" si="0">C3&amp;"_"&amp;"sr"&amp;TEXT(D3,"00")&amp;"_"&amp;YEAR(G3)&amp;TEXT(G3,"MM")&amp;TEXT(G3,"DD")&amp;"_p"&amp;E3&amp;"_wv"&amp;TEXT(F3,"00")&amp;""</f>
         <v>nl_sr02_20200518_pA_wv02</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
@@ -704,7 +707,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1</v>
       </c>
@@ -737,7 +740,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1</v>
       </c>
@@ -770,7 +773,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1</v>
       </c>
@@ -803,7 +806,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1</v>
       </c>
@@ -836,7 +839,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1</v>
       </c>
@@ -869,7 +872,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>6</v>
       </c>
@@ -899,7 +902,7 @@
         <v>nl_sr09_20210107_pB_wv01</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>6</v>
       </c>
@@ -929,7 +932,7 @@
         <v>nl_sr10_20210118_pB_wv02</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>6</v>
       </c>
@@ -961,7 +964,7 @@
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>6</v>
       </c>
@@ -991,7 +994,7 @@
         <v>nl_sr12_20210212_pB_wv04</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>6</v>
       </c>
@@ -1021,7 +1024,7 @@
         <v>nl_sr13_20210301_pB_wv05</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>6</v>
       </c>
@@ -1049,6 +1052,36 @@
       <c r="I15" t="str">
         <f t="shared" si="0"/>
         <v>nl_sr14_20210316_pB_wv06</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>6</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16" t="s">
+        <v>21</v>
+      </c>
+      <c r="D16">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>12</v>
+      </c>
+      <c r="F16">
+        <v>7</v>
+      </c>
+      <c r="G16" s="3">
+        <v>44286</v>
+      </c>
+      <c r="H16" t="s">
+        <v>40</v>
+      </c>
+      <c r="I16" t="str">
+        <f t="shared" si="0"/>
+        <v>nl_sr15_20210331_pB_wv07</v>
       </c>
     </row>
   </sheetData>
@@ -1064,9 +1097,9 @@
       <selection activeCell="O21" sqref="O21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>29</v>
       </c>

--- a/data/spss_files_nl.xlsx
+++ b/data/spss_files_nl.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kw\Documents\comix_data_clean\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86936BC1-BF78-4B57-8607-764C352E9C23}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0119AA0-E4B5-4C9F-9B86-D35916A3B173}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="42">
   <si>
     <t>country</t>
   </si>
@@ -159,6 +159,9 @@
   </si>
   <si>
     <t>20-090916_NL_Wave7_Final_v1_260321_IntClientUse</t>
+  </si>
+  <si>
+    <t>20-090916_NL_Wave8_Final_v1_090421_IntClientUse</t>
   </si>
 </sst>
 </file>
@@ -547,10 +550,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7709FE3-57B1-4766-A5D4-6B378E0A5BA3}">
-  <dimension ref="A1:O16"/>
+  <dimension ref="A1:O17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -667,7 +670,7 @@
         <v>14</v>
       </c>
       <c r="I3" s="2" t="str">
-        <f t="shared" ref="I3:I16" si="0">C3&amp;"_"&amp;"sr"&amp;TEXT(D3,"00")&amp;"_"&amp;YEAR(G3)&amp;TEXT(G3,"MM")&amp;TEXT(G3,"DD")&amp;"_p"&amp;E3&amp;"_wv"&amp;TEXT(F3,"00")&amp;""</f>
+        <f t="shared" ref="I3:I17" si="0">C3&amp;"_"&amp;"sr"&amp;TEXT(D3,"00")&amp;"_"&amp;YEAR(G3)&amp;TEXT(G3,"MM")&amp;TEXT(G3,"DD")&amp;"_p"&amp;E3&amp;"_wv"&amp;TEXT(F3,"00")&amp;""</f>
         <v>nl_sr02_20200518_pA_wv02</v>
       </c>
       <c r="K3">
@@ -1082,6 +1085,36 @@
       <c r="I16" t="str">
         <f t="shared" si="0"/>
         <v>nl_sr15_20210331_pB_wv07</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>6</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17" t="s">
+        <v>21</v>
+      </c>
+      <c r="D17">
+        <v>16</v>
+      </c>
+      <c r="E17" t="s">
+        <v>12</v>
+      </c>
+      <c r="F17">
+        <v>8</v>
+      </c>
+      <c r="G17" s="3">
+        <v>44295</v>
+      </c>
+      <c r="H17" t="s">
+        <v>41</v>
+      </c>
+      <c r="I17" t="str">
+        <f t="shared" si="0"/>
+        <v>nl_sr16_20210409_pB_wv08</v>
       </c>
     </row>
   </sheetData>
